--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D5\Desktop\course_scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F5B228-A9F4-4D8F-87BE-07A55BF4A916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7FC203-9891-4F38-9DED-8BBA8B637084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="2880" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>课程</t>
   </si>
@@ -58,9 +58,6 @@
     <t>黄敏</t>
   </si>
   <si>
-    <t>东1-101</t>
-  </si>
-  <si>
     <t>星期一</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>王帅</t>
   </si>
   <si>
-    <t>东1-102</t>
-  </si>
-  <si>
     <t>星期二</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t>蔡庆玲</t>
   </si>
   <si>
-    <t>东1-103</t>
-  </si>
-  <si>
     <t>星期三</t>
   </si>
   <si>
@@ -112,9 +103,6 @@
     <t>何涛</t>
   </si>
   <si>
-    <t>东1-104</t>
-  </si>
-  <si>
     <t>星期四</t>
   </si>
   <si>
@@ -130,9 +118,6 @@
     <t>李孟棠</t>
   </si>
   <si>
-    <t>东1-105</t>
-  </si>
-  <si>
     <t>星期五</t>
   </si>
   <si>
@@ -145,40 +130,37 @@
     <t>魏亮亮</t>
   </si>
   <si>
-    <t>东1-106</t>
-  </si>
-  <si>
     <t>自动控制原理</t>
   </si>
   <si>
     <t>李中华</t>
   </si>
   <si>
-    <t>东1-107</t>
-  </si>
-  <si>
     <t>计算机网络</t>
   </si>
   <si>
     <t>马倩</t>
   </si>
   <si>
-    <t>东1-108</t>
-  </si>
-  <si>
     <t>深度学习</t>
   </si>
   <si>
     <t>赵屾</t>
   </si>
   <si>
-    <t>东1-109</t>
-  </si>
-  <si>
     <t>微机原理实验</t>
   </si>
   <si>
-    <t>东1-110</t>
+    <t>东1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>东2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工学园1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -551,7 +533,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -600,16 +582,16 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="G2" s="3">
         <v>0.1</v>
@@ -626,22 +608,22 @@
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G3" s="3">
         <v>0.2</v>
@@ -654,22 +636,22 @@
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G4" s="3">
         <v>0.26</v>
@@ -682,22 +664,22 @@
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="G5" s="3">
         <v>0.3</v>
@@ -710,19 +692,19 @@
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="3">
@@ -736,13 +718,13 @@
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -754,10 +736,10 @@
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>44</v>
@@ -772,13 +754,13 @@
     </row>
     <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -790,13 +772,13 @@
     </row>
     <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -808,13 +790,13 @@
     </row>
     <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D5\Desktop\course_scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7FC203-9891-4F38-9DED-8BBA8B637084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7116ACF5-C8A9-4116-B570-2ACE93A2C382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2880" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,9 +532,7 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D5\Desktop\course_scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7116ACF5-C8A9-4116-B570-2ACE93A2C382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F49F0B-B35B-4541-9311-0962DDAE8DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,9 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
